--- a/library/library_0759.xlsx
+++ b/library/library_0759.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2B7D4A-CBBD-7642-820F-CE17C6E44315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334E21E4-89A6-564E-AEF1-7332B7AE0A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>GACACAG</t>
   </si>
   <si>
-    <t>H.BROWN</t>
+    <t>S.GISH</t>
   </si>
 </sst>
 </file>
